--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,15 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="16140" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="signIn" sheetId="24" r:id="rId1"/>
+    <sheet name="day60" sheetId="24" r:id="rId1"/>
+    <sheet name="online" sheetId="27" r:id="rId2"/>
+    <sheet name="day14" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>STR_itemName</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -82,6 +92,37 @@
   </si>
   <si>
     <t>INT_day</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_timePoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman:10</t>
+  </si>
+  <si>
+    <t>soldiers:swordsman:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicInfo:buildQueue:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_itemCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_itemCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_onLineMinutes</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -241,6 +282,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,7 +368,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="80">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -361,6 +408,9 @@
     <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -393,6 +443,9 @@
     <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -844,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -861,6 +914,9 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -868,6 +924,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -878,6 +937,9 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
@@ -886,6 +948,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
@@ -894,6 +959,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
@@ -902,6 +970,9 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
@@ -910,6 +981,9 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
@@ -918,6 +992,9 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
@@ -926,6 +1003,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
@@ -934,6 +1014,9 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
@@ -942,6 +1025,9 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
@@ -950,6 +1036,9 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
@@ -958,6 +1047,9 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
@@ -966,6 +1058,9 @@
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
@@ -974,6 +1069,9 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
@@ -982,366 +1080,929 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="17" spans="2:3" ht="20" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" ht="20" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="20" spans="2:3" ht="20" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="22" spans="2:3" ht="20" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="24" spans="2:3" ht="20" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="26" spans="2:3" ht="20" customHeight="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="28" spans="2:3" ht="20" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="30" spans="2:3" ht="20" customHeight="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="32" spans="2:3" ht="20" customHeight="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="34" spans="2:3" ht="20" customHeight="1">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="36" spans="2:3" ht="20" customHeight="1">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="38" spans="2:3" ht="20" customHeight="1">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="2:3" ht="20" customHeight="1">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="42" spans="2:3" ht="20" customHeight="1">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="44" spans="2:3" ht="20" customHeight="1">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="47" spans="2:3" ht="20" customHeight="1">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" ht="20" customHeight="1">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="50" spans="2:3" ht="20" customHeight="1">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="52" spans="2:3" ht="20" customHeight="1">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="54" spans="2:3" ht="20" customHeight="1">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="56" spans="2:3" ht="20" customHeight="1">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="58" spans="2:3" ht="20" customHeight="1">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="60" spans="2:3" ht="20" customHeight="1">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="20" customHeight="1">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" ht="20" customHeight="1">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="2:2" ht="20" customHeight="1">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="22" spans="2:2" ht="20" customHeight="1">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="24" spans="2:2" ht="20" customHeight="1">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="2:2" ht="20" customHeight="1">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="28" spans="2:2" ht="20" customHeight="1">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="30" spans="2:2" ht="20" customHeight="1">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="32" spans="2:2" ht="20" customHeight="1">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="34" spans="2:2" ht="20" customHeight="1">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="2:2" ht="20" customHeight="1">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="38" spans="2:2" ht="20" customHeight="1">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="40" spans="2:2" ht="20" customHeight="1">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="42" spans="2:2" ht="20" customHeight="1">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="44" spans="2:2" ht="20" customHeight="1">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="47" spans="2:2" ht="20" customHeight="1">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" ht="20" customHeight="1">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="20" customHeight="1">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="52" spans="2:2" ht="20" customHeight="1">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="20" customHeight="1">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="56" spans="2:2" ht="20" customHeight="1">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="58" spans="2:2" ht="20" customHeight="1">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="60" spans="2:2" ht="20" customHeight="1">
+      <c r="B60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,24 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="10740" yWindow="2720" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
     <sheet name="online" sheetId="27" r:id="rId2"/>
     <sheet name="day14" sheetId="28" r:id="rId3"/>
+    <sheet name="levelup" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -35,61 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
-  <si>
-    <t>STR_itemName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>torch</t>
-  </si>
-  <si>
-    <t>changePlayerName</t>
-  </si>
-  <si>
-    <t>changeCityName</t>
-  </si>
-  <si>
-    <t>retreatTroop</t>
-  </si>
-  <si>
-    <t>moveTheCity</t>
-  </si>
-  <si>
-    <t>dragonExp_1</t>
-  </si>
-  <si>
-    <t>dragonExp_2</t>
-  </si>
-  <si>
-    <t>dragonExp_3</t>
-  </si>
-  <si>
-    <t>dragonHp_1</t>
-  </si>
-  <si>
-    <t>dragonHp_2</t>
-  </si>
-  <si>
-    <t>dragonHp_3</t>
-  </si>
-  <si>
-    <t>heroBlood_1</t>
-  </si>
-  <si>
-    <t>heroBlood_2</t>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -114,15 +65,36 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_itemCount</t>
+    <t>INT_onLineMinutes</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_itemCount</t>
+    <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_onLineMinutes</t>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:movingConstruction:1,special:torch:1</t>
+  </si>
+  <si>
+    <t>special:movingConstruction:1,special:torch:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:movingConstruction:1</t>
+  </si>
+  <si>
+    <t>special:movingConstruction:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -282,6 +254,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -368,7 +356,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="96">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -411,6 +399,14 @@
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -446,6 +442,14 @@
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -895,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -907,676 +911,493 @@
     <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1">
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="B45" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1">
+      <c r="B46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1">
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1">
+      <c r="B53" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1">
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1">
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1">
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
+      <c r="B61" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1605,22 +1426,19 @@
     <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1628,27 +1446,21 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1656,43 +1468,37 @@
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
@@ -1804,7 +1610,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="20" customHeight="1">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" ht="20" customHeight="1">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="2:2" ht="20" customHeight="1">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="22" spans="2:2" ht="20" customHeight="1">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="24" spans="2:2" ht="20" customHeight="1">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="2:2" ht="20" customHeight="1">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="28" spans="2:2" ht="20" customHeight="1">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="30" spans="2:2" ht="20" customHeight="1">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="32" spans="2:2" ht="20" customHeight="1">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="34" spans="2:2" ht="20" customHeight="1">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="2:2" ht="20" customHeight="1">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="38" spans="2:2" ht="20" customHeight="1">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="40" spans="2:2" ht="20" customHeight="1">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="42" spans="2:2" ht="20" customHeight="1">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="44" spans="2:2" ht="20" customHeight="1">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="47" spans="2:2" ht="20" customHeight="1">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" ht="20" customHeight="1">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="20" customHeight="1">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="52" spans="2:2" ht="20" customHeight="1">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="20" customHeight="1">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="56" spans="2:2" ht="20" customHeight="1">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="58" spans="2:2" ht="20" customHeight="1">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="60" spans="2:2" ht="20" customHeight="1">
+      <c r="B60" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1816,10 +1838,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -1827,112 +1852,99 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="A12" s="1">
+      <c r="C10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="21600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="520" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -54,13 +54,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:swordsman:10</t>
-  </si>
-  <si>
-    <t>soldiers:swordsman:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_onLineMinutes</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -80,21 +73,387 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:movingConstruction:1,special:torch:1</t>
-  </si>
-  <si>
-    <t>special:movingConstruction:1,special:torch:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:movingConstruction:1</t>
-  </si>
-  <si>
-    <t>special:movingConstruction:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>basicInfo:marchQueue:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipActive_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:woodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:ironBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:foodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:coinBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:citizenBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:movingConstruction:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:infantryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:archerAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:cavalryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:siegeAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:stoneBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:retreatTroop:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:citizenClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:citizenClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_5:1,resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:citizenClass_2:1,resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_4:1,resource:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1:1,resource:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warSpeedupClass_2:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_6:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExp_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBlood_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_2,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -340,8 +699,310 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,8 +1016,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="398">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -407,6 +1074,157 @@
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -450,6 +1268,157 @@
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -899,16 +1868,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
@@ -916,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -924,481 +1894,524 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
+      <c r="B21" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
+      <c r="B30" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
+      <c r="B31" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
+      <c r="B33" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
+      <c r="B34" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
+      <c r="B37" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
+      <c r="B38" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
+      <c r="B39" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>12</v>
+      <c r="B43" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
+      <c r="B44" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>12</v>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
+      <c r="B48" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>12</v>
+      <c r="B49" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>12</v>
+      <c r="B50" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>12</v>
+      <c r="B51" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>12</v>
+      <c r="B52" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>12</v>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>12</v>
+      <c r="B54" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>12</v>
+      <c r="B55" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>12</v>
+      <c r="B56" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>12</v>
+      <c r="B57" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>12</v>
+      <c r="B58" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>12</v>
+      <c r="B59" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>12</v>
+      <c r="B60" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B61" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" ht="20" customHeight="1">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" ht="20" customHeight="1">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2" ht="20" customHeight="1">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2" ht="20" customHeight="1">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2" ht="20" customHeight="1">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:2" ht="20" customHeight="1">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2" ht="20" customHeight="1">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2" ht="20" customHeight="1">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="2:2" ht="20" customHeight="1">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:2" ht="20" customHeight="1">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="2:2" ht="20" customHeight="1">
+      <c r="B75" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1417,13 +2430,15 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
@@ -1431,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -1442,33 +2457,33 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1476,65 +2491,263 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>85</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>90</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>95</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>105</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>110</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>115</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="17" spans="2:3" ht="20" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3" ht="20" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="20" spans="2:3" ht="20" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="22" spans="2:3" ht="20" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="24" spans="2:3" ht="20" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="26" spans="2:3" ht="20" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="28" spans="2:3" ht="20" customHeight="1">
+      <c r="C27" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="30" spans="2:3" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="32" spans="2:3" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
@@ -1610,14 +2823,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
@@ -1633,112 +2848,112 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
+      <c r="B13" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
+      <c r="B14" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -1826,25 +3041,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -1853,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -1864,10 +3083,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -1877,8 +3096,8 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1886,10 +3105,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -1897,10 +3116,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -1908,10 +3127,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -1919,10 +3138,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -1930,10 +3149,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -1941,23 +3160,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="20" customHeight="1">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" ht="20" customHeight="1">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="20" spans="2:2" ht="20" customHeight="1">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="22" spans="2:2" ht="20" customHeight="1">
-      <c r="B22" s="4"/>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="2:2" ht="20" customHeight="1">
       <c r="B24" s="4"/>

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="520" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="2080" yWindow="1540" windowWidth="28640" windowHeight="18520" tabRatio="346"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -77,18 +77,358 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>resource:woodClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipActive_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:woodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:ironBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:foodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:coinBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:citizenBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:movingConstruction:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:infantryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:archerAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:cavalryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:siegeAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:stoneBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chestKey_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:citizenClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_5:1,resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:citizenClass_2:1,resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_4:1,resource:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1:1,resource:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warSpeedupClass_2:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_6:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExp_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBlood_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_2,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>resource:coinClass_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:ironClass_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -97,55 +437,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>speedup:speedup_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
+    <t>special:retreatTroop:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -153,307 +449,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonChest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>speedup:speedup_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:woodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:ironBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:foodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:coinBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:citizenBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:movingConstruction:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:infantryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:archerAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:cavalryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:siegeAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:unitHpBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:stoneBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:retreatTroop:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:citizenClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:citizenClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:horseArcher:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_5:1,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:citizenClass_2:1,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_4:1,resource:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>warSpeedupClass_2:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_6:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExp_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBlood_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_2,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="398">
+  <cellStyleXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -613,6 +609,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1023,7 +1087,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="398">
+  <cellStyles count="466">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1225,6 +1289,40 @@
     <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1419,6 +1517,40 @@
     <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1870,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -1895,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -1903,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -1912,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -1920,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -1928,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -1936,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -1944,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -1952,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -1960,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -1968,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -1976,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -1984,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -1992,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2000,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2008,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2016,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2024,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2032,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2040,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2048,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2056,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2064,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2072,7 +2204,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2080,7 +2212,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2088,7 +2220,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2096,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2104,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2112,7 +2244,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2120,7 +2252,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2128,7 +2260,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
@@ -2136,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2144,7 +2276,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2152,7 +2284,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2160,7 +2292,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2168,7 +2300,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2176,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2184,7 +2316,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2192,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2200,7 +2332,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2208,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2216,7 +2348,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2224,7 +2356,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2232,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2240,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2248,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2256,7 +2388,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2264,7 +2396,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2272,7 +2404,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2280,7 +2412,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2288,7 +2420,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2296,7 +2428,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2304,7 +2436,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2312,7 +2444,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2320,7 +2452,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2328,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2336,7 +2468,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2344,7 +2476,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2352,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2360,7 +2492,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2368,7 +2500,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2430,7 +2562,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2461,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2472,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2483,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2494,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2505,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2516,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2527,7 +2659,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2538,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2549,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2560,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2571,7 +2703,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2582,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2593,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2603,8 +2735,8 @@
       <c r="B15" s="1">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>78</v>
+      <c r="C15" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2614,8 +2746,8 @@
       <c r="B16" s="1">
         <v>65</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>83</v>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -2626,7 +2758,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -2637,7 +2769,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -2647,8 +2779,8 @@
       <c r="B19" s="1">
         <v>80</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>80</v>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -2658,8 +2790,8 @@
       <c r="B20" s="1">
         <v>85</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>82</v>
+      <c r="C20" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -2670,7 +2802,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -2681,7 +2813,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -2692,7 +2824,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -2703,7 +2835,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -2714,7 +2846,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -2725,7 +2857,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -2736,12 +2868,11 @@
         <v>120</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="B30" s="4"/>
@@ -2823,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
@@ -2849,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2857,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2865,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2873,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2881,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2889,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2897,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2905,7 +3036,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2913,7 +3044,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2921,7 +3052,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2929,7 +3060,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2937,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2945,7 +3076,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3075,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3086,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3097,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3108,7 +3239,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3119,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3130,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3141,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3152,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3163,7 +3294,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3174,7 +3305,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="1920" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="1"/>
+    <workbookView xWindow="6200" yWindow="1920" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -365,18 +365,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>speedup:speedup_5:1,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:citizenClass_2:1,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_6:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:retreatTroop:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -389,75 +377,87 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>special:heroBlood_1:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_2:1,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:stoneClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:ironClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:foodClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman:100,basicInfo:marchQueue:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1,resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1,resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>resource:coinClass_4:1,resource:gemClass_1:6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:stamina_1:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_2:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_1:1,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonExp_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman:100,basicInfo:marchQueue:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult:100</t>
+    <t>speedup:warSpeedupClass_2:2,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_2:1,resource:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonExp_1:2,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_4:3,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="468">
+  <cellStyleXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -617,6 +617,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,7 +1099,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="468">
+  <cellStyles count="470">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1334,6 +1336,7 @@
     <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1563,6 +1566,7 @@
     <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2015,7 +2019,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2573,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2605,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2616,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2627,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2638,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2649,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2660,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2748,7 +2752,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2770,7 +2774,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -2792,7 +2796,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -2803,7 +2807,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -2825,7 +2829,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -2880,7 +2884,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -2967,7 +2971,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3040,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3096,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3184,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3218,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3229,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3240,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3251,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3262,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3273,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3284,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3295,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3306,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3317,8 +3321,11 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="C13" s="5"/>
     </row>
     <row r="24" spans="2:2" ht="20" customHeight="1">
       <c r="B24" s="4"/>

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="1920" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
+    <workbookView xWindow="6200" yWindow="1920" windowWidth="28640" windowHeight="18520" tabRatio="346"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:vipActive_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:woodClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -458,6 +454,10 @@
   </si>
   <si>
     <t>speedup:speedup_4:3,resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipActive_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2140,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2148,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2172,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2188,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2196,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2204,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2212,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2220,7 +2220,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2228,7 +2228,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2236,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2244,7 +2244,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2252,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2260,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2268,7 +2268,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2284,7 +2284,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2292,7 +2292,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2300,7 +2300,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2308,7 +2308,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2316,7 +2316,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2324,7 +2324,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2332,7 +2332,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2340,7 +2340,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2348,7 +2348,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2356,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2364,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2372,7 +2372,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2388,7 +2388,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2396,7 +2396,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2404,7 +2404,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2412,7 +2412,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2420,7 +2420,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2428,7 +2428,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2436,7 +2436,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2444,7 +2444,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2452,7 +2452,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2460,7 +2460,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2468,7 +2468,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2476,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2484,7 +2484,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2500,7 +2500,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2508,7 +2508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2516,7 +2516,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2631,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2653,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2664,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2752,7 +2752,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2763,7 +2763,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -2774,7 +2774,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -2796,7 +2796,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -2807,7 +2807,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -2818,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -2829,7 +2829,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -2884,7 +2884,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3012,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3028,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3036,7 +3036,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3052,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3068,7 +3068,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3076,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3084,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3092,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3100,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3188,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3222,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3233,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3244,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3255,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3266,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3277,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3288,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3299,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3310,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3321,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:swordsman:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:retreatTroop:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -209,54 +205,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:ranger:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:450</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman:550</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:horseArcher:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:chestKey_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -473,7 +421,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:crossbowman:350</t>
+    <t>soldiers:swordsman_1:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_1:400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:450</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:550</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2305,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2353,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2361,7 +2361,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2393,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2401,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2417,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2425,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2441,7 +2441,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2449,7 +2449,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2457,7 +2457,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2505,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2521,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2585,7 +2585,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2673,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2681,7 +2681,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2864,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2875,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2886,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2897,7 +2897,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2919,7 +2919,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2930,7 +2930,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2941,7 +2941,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2952,7 +2952,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2974,7 +2974,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2997,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3019,7 +3019,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3030,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3041,7 +3041,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3052,7 +3052,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3074,7 +3074,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3227,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3235,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3251,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3259,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3267,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3275,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3435,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3446,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3479,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3490,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -421,59 +421,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:swordsman_1:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_1:400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:450</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:550</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:horseArcher_1:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_1:200</t>
+    <t>soldiers:catapult_1:1:40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:1:80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:1:120</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:1:160</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:skeletonWarrior:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:deathKnight:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:meatWagon:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:skeletonArcher:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -623,8 +623,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="552">
+  <cellStyleXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1181,8 +1194,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,8 +1262,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="552">
+  <cellStyles count="596">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1485,6 +1545,28 @@
     <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1756,6 +1838,28 @@
     <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3162,7 +3266,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3170,7 +3274,8 @@
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
@@ -3210,7 +3315,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3218,7 +3323,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3226,7 +3331,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3234,7 +3339,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3242,7 +3347,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3250,7 +3355,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3258,7 +3363,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3266,7 +3371,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3274,24 +3379,24 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>106</v>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>107</v>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>108</v>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -421,42 +421,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:catapult_1:1:40</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:1:80</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:1:120</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:1:160</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:horseArcher_1:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:ballista_1:1:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_2:1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:ranger_2:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:lancer_2:1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:catapult_2:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -474,6 +446,34 @@
   </si>
   <si>
     <t>soldiers:skeletonArcher:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3266,13 +3266,13 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="1"/>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3340,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3356,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3372,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3396,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -421,18 +421,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:horseArcher_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:skeletonWarrior:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -449,31 +437,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:sentinel_1:1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ballista_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:1:200</t>
+    <t>soldiers:catapult_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_2:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2311,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2870,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3266,7 +3266,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3356,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3372,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3396,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:heroBlood_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:vipActive_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -209,38 +205,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonChest_1:1,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_2:10,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:2,resource:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:10,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_2:2,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_1:2,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>speedup:speedup_4:10,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -474,6 +438,42 @@
   </si>
   <si>
     <t>soldiers:catapult_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1,resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_2:10,resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:2,resource:gemClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipActive_3:1,resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_1:2,resource:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_2:2,resource:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:10,resource:gemClass_1:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:heroBlood_1:1,resource:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_2:1,resource:gemClass_1:9</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="596">
+  <cellStyleXfs count="598">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -652,6 +652,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,7 +1268,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="596">
+  <cellStyles count="598">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1567,6 +1569,7 @@
     <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1860,6 +1863,7 @@
     <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2344,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2377,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2385,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2393,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2409,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2417,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2425,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2441,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2449,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2457,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2465,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2473,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2497,7 +2501,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2505,7 +2509,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2513,7 +2517,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2521,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2529,7 +2533,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2537,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2545,7 +2549,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2553,7 +2557,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2561,7 +2565,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2577,7 +2581,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2593,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2609,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2625,7 +2629,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2689,7 +2693,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2777,7 +2781,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2785,7 +2789,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2793,7 +2797,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2801,7 +2805,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2902,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2913,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2924,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2935,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2946,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2957,7 +2961,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2968,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2979,7 +2983,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2990,7 +2994,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3001,7 +3005,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3012,7 +3016,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3023,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3034,7 +3038,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3045,7 +3049,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3056,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3101,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3134,7 +3138,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3145,7 +3149,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3156,7 +3160,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3167,7 +3171,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3178,7 +3182,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3265,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3292,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3300,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3316,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3324,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3332,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3340,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3348,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3356,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3364,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3372,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3380,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3388,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3396,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3484,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3518,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3540,7 +3544,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3551,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3562,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3573,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3584,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3595,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3606,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3617,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -73,318 +73,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:ironBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:foodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:coinBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:movingConstruction:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:infantryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:archerAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:cavalryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:siegeAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:unitHpBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:stoneBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:retreatTroop:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:10,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonHp_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:woodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:skeletonWarrior:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -441,39 +129,359 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonChest_1:1,resource:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_2:10,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:2,resource:gemClass_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_1:2,resource:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_2:2,resource:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:10,resource:gemClass_1:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_1:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1,resource:gemClass_1:9</t>
+    <t>items:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:siegeAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:retreatTroop:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1,items:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_2:10,items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:2,items:gemClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:1,items:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:2,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_2:2,items:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:10,items:gemClass_1:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:1,items:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:gemClass_1:9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:10,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:movingConstruction:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:infantryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:archerAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:cavalryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2315,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2340,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2348,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2357,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2365,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2373,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2381,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2389,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2397,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2405,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2413,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2421,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2429,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2437,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2445,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2453,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2461,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2469,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2477,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2485,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2493,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2501,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2509,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2517,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2525,7 +2533,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2533,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2541,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2549,7 +2557,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2557,7 +2565,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2565,7 +2573,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2573,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
@@ -2581,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2589,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2597,7 +2605,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2605,7 +2613,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2613,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2621,7 +2629,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2629,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2637,7 +2645,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2645,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2653,7 +2661,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2661,7 +2669,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2677,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2685,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2693,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2709,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2717,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2733,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2733,7 +2741,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2741,7 +2749,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2749,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2757,7 +2765,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2765,7 +2773,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2773,7 +2781,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2781,7 +2789,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2789,7 +2797,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2797,7 +2805,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2805,7 +2813,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2813,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2875,7 +2883,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2906,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2917,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2928,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2939,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2950,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2961,7 +2969,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2972,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2983,7 +2991,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2994,7 +3002,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3005,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3016,7 +3024,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3027,7 +3035,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3038,7 +3046,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3049,7 +3057,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3060,7 +3068,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3071,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3082,7 +3090,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3093,7 +3101,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -3105,7 +3113,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3116,7 +3124,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3127,7 +3135,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3138,7 +3146,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3149,7 +3157,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3160,7 +3168,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3171,7 +3179,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3182,7 +3190,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3270,7 +3278,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3296,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3304,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3312,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3320,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3328,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3336,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3344,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3352,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3360,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3368,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3384,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3392,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3400,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3488,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3522,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3533,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3544,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3555,7 +3563,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3566,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3577,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3588,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3599,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3610,7 +3618,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3621,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Activities.xlsx
+++ b/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:lancer_1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:sentinel_1:300</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -285,34 +281,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_1:1,items:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_2:10,items:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stamina_1:2,items:gemClass_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:vipActive_3:1,items:gemClass_1:4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:casinoTokenClass_1:2,items:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:warSpeedupClass_2:2,items:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_3:10,items:gemClass_1:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:heroBlood_1:1,items:gemClass_1:8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -321,10 +293,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:speedup_4:10,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:speedup_1:6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -482,6 +450,54 @@
   </si>
   <si>
     <t>items:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1,items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2,items:stoneClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:2,items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:2,items:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_1:10,items:speedup_2:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10,items:stamina_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:masterOfDefender_1:4,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_2:2,items:speedup_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_2:4,items:speedup_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:6,items:speedup_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_2:8,items:speedup_1:8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="598">
+  <cellStyleXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -660,6 +676,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1276,7 +1334,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="598">
+  <cellStyles count="640">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1578,6 +1636,27 @@
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1872,6 +1951,27 @@
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2323,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showRuler="0" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2348,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2356,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2365,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2373,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2381,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2389,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2397,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2405,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2413,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2421,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2429,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2437,7 +2537,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2445,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2453,7 +2553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2461,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2469,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2477,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2485,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2493,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2501,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2509,7 +2609,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2517,7 +2617,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2525,7 +2625,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2533,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2541,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2549,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2557,7 +2657,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2565,7 +2665,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2573,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2581,7 +2681,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
@@ -2589,7 +2689,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2597,7 +2697,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2605,7 +2705,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2613,7 +2713,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2621,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2629,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2637,7 +2737,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2645,7 +2745,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2653,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2661,7 +2761,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2769,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2777,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2801,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2817,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2825,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2733,7 +2833,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2741,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2749,7 +2849,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2757,7 +2857,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2765,7 +2865,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2773,7 +2873,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2781,7 +2881,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2789,7 +2889,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2797,7 +2897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2805,7 +2905,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2813,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2821,7 +2921,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2882,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2914,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2925,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2936,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2947,7 +3047,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2958,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2969,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2980,7 +3080,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2991,7 +3091,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3002,7 +3102,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3013,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3024,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3035,7 +3135,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3046,7 +3146,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3057,7 +3157,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3068,7 +3168,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3079,7 +3179,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3090,7 +3190,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3101,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -3113,7 +3213,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3124,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3135,7 +3235,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3146,7 +3246,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3157,7 +3257,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3168,7 +3268,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3279,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3190,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3278,7 +3378,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3312,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3320,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3328,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3336,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3344,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3352,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3360,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3368,7 +3468,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3496,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3505,7 +3605,7 @@
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
     <col min="6" max="16384" width="20.6640625" style="1"/>
   </cols>
@@ -3527,10 +3627,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3538,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3549,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3560,10 +3660,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3571,10 +3671,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3582,10 +3682,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3593,10 +3693,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3604,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3615,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3626,23 +3726,55 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="C15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="C16" s="5"/>
